--- a/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,87</t>
+          <t>2,47; 7,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,72</t>
+          <t>2,86; 8,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,1</t>
+          <t>-0,4; 7,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 12,49</t>
+          <t>3,59; 12,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 89,88</t>
+          <t>22,38; 97,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,6; 92,87</t>
+          <t>22,78; 96,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 48,18</t>
+          <t>-2,18; 50,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,67; 51,87</t>
+          <t>11,16; 50,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,29</t>
+          <t>-2,94; 0,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,29</t>
+          <t>-3,18; 0,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,95</t>
+          <t>-1,96; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -2,59</t>
+          <t>-7,22; -2,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 7,42</t>
+          <t>-46,88; 3,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 6,45</t>
+          <t>-45,9; 0,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 22,39</t>
+          <t>-18,24; 25,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,19; -17,56</t>
+          <t>-41,4; -16,82</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,35</t>
+          <t>-4,5; 2,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,74</t>
+          <t>-5,64; 3,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -0,56</t>
+          <t>-9,57; -0,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,78</t>
+          <t>-3,85; 3,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 32,79</t>
+          <t>-42,84; 35,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 40,33</t>
+          <t>-38,75; 36,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,1; -2,67</t>
+          <t>-47,48; -2,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 29,41</t>
+          <t>-22,2; 28,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>-0,05; 2,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,14</t>
+          <t>0,13; 2,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,18</t>
+          <t>-1,14; 2,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,47</t>
+          <t>-2,54; 1,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>-0,05; 43,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 41,74</t>
+          <t>1,21; 39,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 18,08</t>
+          <t>-8,52; 18,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 8,82</t>
+          <t>-13,39; 10,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,98</t>
+          <t>2,57; 7,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,78</t>
+          <t>2,79; 8,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,34</t>
+          <t>-0,18; 7,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 97,29</t>
+          <t>23,68; 96,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,78; 96,0</t>
+          <t>22,45; 95,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 50,65</t>
+          <t>-1,18; 51,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,12</t>
+          <t>-2,87; 0,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,05</t>
+          <t>-3,27; -0,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,17</t>
+          <t>-2,0; 1,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 3,46</t>
+          <t>-46,7; 1,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 0,98</t>
+          <t>-46,24; 0,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 25,32</t>
+          <t>-18,9; 22,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,44</t>
+          <t>-4,22; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 3,67</t>
+          <t>-5,37; 3,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; -0,37</t>
+          <t>-9,67; -0,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 35,66</t>
+          <t>-41,48; 38,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 36,22</t>
+          <t>-38,55; 36,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-47,48; -2,35</t>
+          <t>-48,52; -3,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,8</t>
+          <t>0,07; 2,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,99</t>
+          <t>0,18; 2,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,22</t>
+          <t>-1,09; 2,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 43,38</t>
+          <t>0,47; 43,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 39,04</t>
+          <t>2,01; 39,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 18,86</t>
+          <t>-8,1; 19,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,98</t>
+          <t>2,52; 7,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,74</t>
+          <t>2,84; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 7,66</t>
+          <t>-0,08; 7,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 12,57</t>
+          <t>3,5; 12,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 96,38</t>
+          <t>20,88; 89,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,45; 95,1</t>
+          <t>22,6; 92,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 51,95</t>
+          <t>-0,36; 48,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,16; 50,66</t>
+          <t>11,67; 51,87</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,05</t>
+          <t>-2,8; 0,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,01</t>
+          <t>-2,94; 0,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,99</t>
+          <t>-1,94; 1,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -2,5</t>
+          <t>-7,59; -2,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 1,26</t>
+          <t>-45,7; 7,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 0,77</t>
+          <t>-42,79; 6,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 22,66</t>
+          <t>-18,11; 22,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -16,82</t>
+          <t>-43,19; -17,56</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,64</t>
+          <t>-4,8; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,59</t>
+          <t>-5,24; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -0,55</t>
+          <t>-9,47; -0,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,57</t>
+          <t>-3,43; 3,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 38,49</t>
+          <t>-45,74; 32,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 36,44</t>
+          <t>-36,06; 40,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -3,29</t>
+          <t>-46,1; -2,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 28,28</t>
+          <t>-19,82; 29,41</t>
         </is>
       </c>
     </row>
@@ -973,37 +973,37 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,99</t>
+          <t>0,14; 3,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,25</t>
+          <t>-1,11; 2,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,72</t>
+          <t>-2,42; 1,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 43,25</t>
+          <t>0,89; 44,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 39,11</t>
+          <t>1,5; 41,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 19,16</t>
+          <t>-8,23; 18,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 10,34</t>
+          <t>-13,04; 8,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>29,39%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 12,49</t>
+          <t>3,57; 12,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,67; 51,87</t>
+          <t>11,58; 51,3</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,52%</t>
+          <t>-29,73%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -2,59</t>
+          <t>-7,83; 0,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,19; -17,56</t>
+          <t>-49,37; -7,08</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,78</t>
+          <t>-3,45; 3,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 29,41</t>
+          <t>-20,31; 29,64</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>-1,61%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,47</t>
+          <t>-3,31; 3,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 8,82</t>
+          <t>-18,47; 21,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,87</t>
+          <t>2,42; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,72</t>
+          <t>2,51; 8,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,1</t>
+          <t>-0,32; 7,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 12,48</t>
+          <t>3,52; 12,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 89,88</t>
+          <t>21,19; 92,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,6; 92,87</t>
+          <t>20,46; 88,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 48,18</t>
+          <t>-1,64; 48,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 51,3</t>
+          <t>11,47; 50,16</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,29</t>
+          <t>-2,97; 0,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,29</t>
+          <t>-3,0; 0,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,95</t>
+          <t>-1,85; 1,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 0,03</t>
+          <t>-7,55; 0,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 7,42</t>
+          <t>-47,46; 4,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 6,45</t>
+          <t>-42,85; 2,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 22,39</t>
+          <t>-17,43; 22,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,37; -7,08</t>
+          <t>-47,19; -2,26</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,35</t>
+          <t>-4,26; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,74</t>
+          <t>-5,1; 3,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -0,56</t>
+          <t>-10,27; -0,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,77</t>
+          <t>-3,75; 3,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 32,79</t>
+          <t>-42,17; 35,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 40,33</t>
+          <t>-35,75; 37,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,1; -2,67</t>
+          <t>-48,87; -3,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 29,64</t>
+          <t>-20,97; 28,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>0,11; 2,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,14</t>
+          <t>0,06; 2,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,18</t>
+          <t>-1,15; 2,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,07</t>
+          <t>-3,28; 3,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>1,9; 42,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 41,74</t>
+          <t>0,77; 38,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 18,08</t>
+          <t>-8,61; 17,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 21,37</t>
+          <t>-18,51; 24,3</t>
         </is>
       </c>
     </row>
